--- a/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Escenarios y casos de pruebas.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Escenarios y casos de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235894_esen_edu_sv/Documents/PDS/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/BF-0043/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{ACB2BA81-B0F2-4DE7-BD79-9D3B482150B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F09A24-2939-4F1D-89A7-E9F9E0D5001B}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{ACB2BA81-B0F2-4DE7-BD79-9D3B482150B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9284196-A2D6-4983-965E-D17DAB7E605A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{91928D08-DA5E-4164-96CC-67657D16303B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Criterios de Aceptacipón</t>
   </si>
@@ -142,9 +142,6 @@
     <t>1. Se espera que se logre apreciar el resumen de los ingresos y gastos en el apartado balance.</t>
   </si>
   <si>
-    <t>Verificar que los gastos mensuales aparezcan en el apartado de  "Detalles de categoriasa" donde se detallen cada uno de los gastos, e saldo resultante y el monto restante.</t>
-  </si>
-  <si>
     <t>1. Se espera que se logre apreciar el detalle de gastos en el apartado  "Detalles categorias".</t>
   </si>
   <si>
@@ -155,13 +152,37 @@
   </si>
   <si>
     <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar losde gastos. 4. Visualizar el resumen y el total de gastos en el apartado balance.</t>
+  </si>
+  <si>
+    <t>Notas/Observaciones</t>
+  </si>
+  <si>
+    <t>Verificar que los gastos mensuales aparezcan en el apartado de  "Detalles de categorias" donde se detallen cada uno de los gastos, e saldo resultante y el monto restante.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Verificar que en el apartado de "detalles categorias" se puedan observar los movimientos que se han realizado en cada categoria y muestre el saldo resultante del presupuesto general.</t>
+  </si>
+  <si>
+    <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar los detalles y el total de gastos en el apartado "Detalles categorias". 5. Observar los movimientos y saldos resultantes del presupuesto.</t>
+  </si>
+  <si>
+    <t>1. Ses espera observar los movimientos y saldos resultantes del presupuesto.</t>
+  </si>
+  <si>
+    <t>Evidencia</t>
+  </si>
+  <si>
+    <t>El sistema no posee la funcionalidad de movientos para poder observar el saldo restante de la categoria y del presupuesto general.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,13 +211,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -223,10 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -234,9 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -249,11 +306,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -279,6 +373,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,111 +710,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD25A43-9F00-4284-96FB-FE19C4A42FA5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,10 +828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34746B4-4790-424F-8AB7-1295416690DB}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,124 +844,160 @@
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
@@ -865,6 +1009,12 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{26ACE5E0-F384-485E-9CE3-A25211C2B349}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{E70922D5-E9F8-40A4-88C9-03821615617F}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{06D8DDF1-E5B7-41E2-A72E-365F5458C71A}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{0D33145C-6705-494E-BDBB-EB0DE65AF519}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Escenarios y casos de pruebas.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0043/BF-0043 - Escenarios y casos de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235894_esen_edu_sv/Documents/PDS/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/BF-0043/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{ACB2BA81-B0F2-4DE7-BD79-9D3B482150B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9284196-A2D6-4983-965E-D17DAB7E605A}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{ACB2BA81-B0F2-4DE7-BD79-9D3B482150B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FE15A5-CB94-47AB-8DDC-D86BA1006595}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{91928D08-DA5E-4164-96CC-67657D16303B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Criterios de Aceptacipón</t>
   </si>
@@ -142,9 +142,6 @@
     <t>1. Se espera que se logre apreciar el resumen de los ingresos y gastos en el apartado balance.</t>
   </si>
   <si>
-    <t>1. Se espera que se logre apreciar el detalle de gastos en el apartado  "Detalles categorias".</t>
-  </si>
-  <si>
     <t>Mostrar gastos actuales y saldo restante por categoria</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Notas/Observaciones</t>
   </si>
   <si>
-    <t>Verificar que los gastos mensuales aparezcan en el apartado de  "Detalles de categorias" donde se detallen cada uno de los gastos, e saldo resultante y el monto restante.</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -169,13 +163,31 @@
     <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar los detalles y el total de gastos en el apartado "Detalles categorias". 5. Observar los movimientos y saldos resultantes del presupuesto.</t>
   </si>
   <si>
-    <t>1. Ses espera observar los movimientos y saldos resultantes del presupuesto.</t>
-  </si>
-  <si>
     <t>Evidencia</t>
   </si>
   <si>
     <t>El sistema no posee la funcionalidad de movientos para poder observar el saldo restante de la categoria y del presupuesto general.</t>
+  </si>
+  <si>
+    <t>Verificar que los gastos mensuales aparezcan en el apartado de  "Detalles de categorias" donde se detalle cada uno de los gastos, el saldo resultante y el monto restante.</t>
+  </si>
+  <si>
+    <t>1. Se espera que se logre apreciar el detalle de gastos en el apartado  "Detalles categorias" y el saldo resultante del prespuesto general.</t>
+  </si>
+  <si>
+    <t>Verficar que los cambios se generen automaticamente al registrar los movimientos y gastos en el presupuesto general.</t>
+  </si>
+  <si>
+    <t>1. Acceder a la página principal. 2.Agregar un monto de ingresos. 3. Agregar las categorías de gastos. 4. Visualizar los detalles y el total de gastos en el apartado "Detalles categorias". 5. Observar los movimientos y saldos resultantes automaticos del presupuesto.</t>
+  </si>
+  <si>
+    <t>1. Se espera observar los movimientos y saldos resultantes del presupuesto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se espera observar los cambios automaticamente de los movimientos y saldos resultantes del presupuesto. </t>
+  </si>
+  <si>
+    <t>El sistema no posee la funcionalidad de movientos para poder observar automaticamente el saldo restante de la categoria y del presupuesto general.</t>
   </si>
 </sst>
 </file>
@@ -336,14 +348,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,14 +738,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
@@ -807,10 +819,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -830,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34746B4-4790-424F-8AB7-1295416690DB}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +886,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +909,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>29</v>
@@ -905,7 +917,7 @@
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4"/>
@@ -915,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
@@ -927,20 +939,20 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -948,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
@@ -957,40 +969,52 @@
         <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="19" t="s">
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
